--- a/src/Cotizaciones/REC2004_20123456789.xlsx
+++ b/src/Cotizaciones/REC2004_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA56EEA-3E9D-44F0-BE57-F4416424112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1BC749-9047-4FF4-ADCF-EAF2DAB8785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10776" yWindow="1356" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -123,15 +123,6 @@
     <t>hugovertiz71@gmail.com</t>
   </si>
   <si>
-    <t>Termómetro Digital Acuario</t>
-  </si>
-  <si>
-    <t>Vitaminas de Salmón para Gato 500ml</t>
-  </si>
-  <si>
-    <t>Vitaminas Multinivel para Perro 250g</t>
-  </si>
-  <si>
     <t>Mundo Patitas SAC</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>Cotización de Productos</t>
+  </si>
+  <si>
+    <t>Dentastix para perros pequeños 3pzas</t>
+  </si>
+  <si>
+    <t>Hueso Dental Chiquito</t>
+  </si>
+  <si>
+    <t>Felix Party Mix 60g</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -824,56 +824,56 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>1046</v>
+        <v>1018</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="5">
         <f>IFERROR(C17*D17,"")</f>
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D18" s="4">
         <v>8</v>
       </c>
       <c r="E18" s="5">
         <f>IFERROR(C18*D18,"")</f>
-        <v>240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
       </c>
       <c r="E19" s="5">
         <f>IFERROR(C19*D19,"")</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
       </c>
       <c r="E21" s="6">
         <f>SUM(E17:E19)</f>
-        <v>1240</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
       </c>
       <c r="E22" s="6">
         <f>ROUND(E21*0.18,2)</f>
-        <v>223.2</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
       </c>
       <c r="E23" s="7">
         <f>E21+E22</f>
-        <v>1463.2</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">

--- a/src/Cotizaciones/REC2004_20123456789.xlsx
+++ b/src/Cotizaciones/REC2004_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1BC749-9047-4FF4-ADCF-EAF2DAB8785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343714F8-DA3D-4655-B677-8EE96D455962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="1356" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Felix Party Mix 60g</t>
+  </si>
+  <si>
+    <t>Cotizacion N°</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -296,11 +302,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -692,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,10 +713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="15">
+        <v>55555</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -722,6 +736,9 @@
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E4" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -904,13 +921,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>

--- a/src/Cotizaciones/REC2004_20123456789.xlsx
+++ b/src/Cotizaciones/REC2004_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343714F8-DA3D-4655-B677-8EE96D455962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE2DF3A-8E79-4C25-964C-1C7AB6BB41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4752" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Felix Fantastic Gato 85g</t>
+  </si>
+  <si>
+    <t>Mezcla de Semillas para Aves 1kg</t>
+  </si>
+  <si>
+    <t>Snack Mixto Para Aves Tropicales 500g</t>
+  </si>
+  <si>
+    <t>Snack Saludable Para Perro 100g</t>
+  </si>
+  <si>
+    <t>Whiskas Adulto 400g</t>
   </si>
 </sst>
 </file>
@@ -268,7 +283,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -303,12 +318,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -316,6 +332,41 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF111827"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9D9"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9D9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
@@ -353,39 +404,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF111827"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFD9D9D9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFD9D9D9"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFD9D9D9"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD9D9D9"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -400,14 +418,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E19">
-  <autoFilter ref="A16:E19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E24">
+  <autoFilter ref="A16:E24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:E24">
+    <sortCondition ref="B16:B24"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PrecioUnitario"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea">
+      <calculatedColumnFormula>IFERROR(C17*D17,"")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,10 +736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
@@ -736,7 +759,7 @@
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -841,106 +864,196 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4">
         <v>200</v>
       </c>
       <c r="D17" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="5">
         <f>IFERROR(C17*D17,"")</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5">
-        <f>IFERROR(C18*D18,"")</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E18:E24" si="0">IFERROR(C18*D18,"")</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4">
         <v>200</v>
       </c>
       <c r="D19" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
-        <f>IFERROR(C19*D19,"")</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <v>150</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1029</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>1036</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4">
+        <v>150</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="6">
-        <f>SUM(E17:E19)</f>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
+      <c r="E26" s="6">
+        <f>SUM(E17:E24)</f>
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="6">
-        <f>ROUND(E21*0.18,2)</f>
-        <v>756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
+      <c r="E27" s="6">
+        <f>ROUND(E26*0.18,2)</f>
+        <v>1330.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="7">
-        <f>E21+E22</f>
-        <v>4956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="E28" s="7">
+        <f>E26+E27</f>
+        <v>8720.2000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="35" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{9AFCD020-A123-4151-A138-EB51AD32A02B}"/>

--- a/src/Cotizaciones/REC2004_20123456789.xlsx
+++ b/src/Cotizaciones/REC2004_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE2DF3A-8E79-4C25-964C-1C7AB6BB41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF16F10-42B6-4DEB-964E-052F6DAE3239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4752" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1344" yWindow="1104" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -63,18 +63,12 @@
     <t>FechaEmision</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>Razón Social:</t>
   </si>
   <si>
     <t>Proveedor S.A.C.</t>
   </si>
   <si>
-    <t>FechaRecepcion (opcional)</t>
-  </si>
-  <si>
     <t>Av. Ejemplo 123, Lima</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
   </si>
   <si>
     <t>Whiskas Adulto 400g</t>
+  </si>
+  <si>
+    <t>FechaEntrega</t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -320,6 +317,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -332,41 +333,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF111827"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFD9D9D9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFD9D9D9"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFD9D9D9"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFD9D9D9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
@@ -404,6 +370,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF111827"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9D9"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9D9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -424,9 +425,9 @@
     <sortCondition ref="B16:B24"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PrecioUnitario"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea">
       <calculatedColumnFormula>IFERROR(C17*D17,"")</calculatedColumnFormula>
@@ -724,7 +725,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,12 +737,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15">
         <v>55555</v>
@@ -757,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,7 +795,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -802,19 +803,22 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
+      <c r="E10" s="19">
+        <v>45973</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
+      <c r="D11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="19">
+        <v>45980</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -822,44 +826,44 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -867,7 +871,7 @@
         <v>1028</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4">
         <v>200</v>
@@ -885,7 +889,7 @@
         <v>1017</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4">
         <v>100</v>
@@ -903,7 +907,7 @@
         <v>1018</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4">
         <v>200</v>
@@ -921,7 +925,7 @@
         <v>1020</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4">
         <v>150</v>
@@ -939,7 +943,7 @@
         <v>1021</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
         <v>60</v>
@@ -957,7 +961,7 @@
         <v>1029</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4">
         <v>100</v>
@@ -975,7 +979,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>80</v>
@@ -993,7 +997,7 @@
         <v>1036</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4">
         <v>150</v>
@@ -1008,7 +1012,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E17:E24)</f>
@@ -1017,7 +1021,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="6">
         <f>ROUND(E26*0.18,2)</f>
@@ -1026,7 +1030,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="7">
         <f>E26+E27</f>
@@ -1034,13 +1038,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="35" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="11"/>
